--- a/biology/Virologie/Ourmiavirus/Ourmiavirus.xlsx
+++ b/biology/Virologie/Ourmiavirus/Ourmiavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ourmiavirus est un genre de virus de la famille des Botourmiaviridae. Il comprend trois espèces. Ce sont des virus à ARN à simple brin à polarité positive, rattachés au  Groupe IV  de la classification Baltimore, qui infectent les plantes (phytovirus). Les hôtes naturels de ce virus sont les Cucurbitaceae, les cerisiers et le manioc.
-Le nom du genre « Ourmiavirus » dérive de celui de la ville d'Ourmia, située dans le Nord-Ouest de l'Iran, où le virus-type (Ourmia melon virus) a été isolé[3] en 1988[4].
+Le nom du genre « Ourmiavirus » dérive de celui de la ville d'Ourmia, située dans le Nord-Ouest de l'Iran, où le virus-type (Ourmia melon virus) a été isolé en 1988.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (18 décembre 2020)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 décembre 2020) :
 Cassava virus C (virus C du manioc)
 Epirus cherry virus (virus du cerisier d'Épire)
 Ourmia melon virus (virus du melon d'Ourmia, espèce-type)</t>
